--- a/database/Margalef1958a.xlsx
+++ b/database/Margalef1958a.xlsx
@@ -80,7 +80,7 @@
     <t>sample code (data code and sample number; data_001)</t>
   </si>
   <si>
-    <t>datasetID</t>
+    <t>collectionCode</t>
   </si>
   <si>
     <t>source code</t>
@@ -815,6 +815,9 @@
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="bottom"/>
     </xf>
@@ -838,9 +841,6 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
@@ -1197,7 +1197,7 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="7" t="s">
         <v>21</v>
       </c>
       <c r="B19" s="5" t="s">
@@ -1221,7 +1221,7 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="7" t="s">
+      <c r="A22" s="8" t="s">
         <v>27</v>
       </c>
       <c r="B22" s="5" t="s">
@@ -1301,10 +1301,10 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="8" t="s">
+      <c r="A32" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="B32" s="9" t="s">
+      <c r="B32" s="10" t="s">
         <v>48</v>
       </c>
     </row>
@@ -1313,10 +1313,10 @@
       <c r="B33" s="5"/>
     </row>
     <row r="34">
-      <c r="A34" s="8" t="s">
+      <c r="A34" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="B34" s="9" t="s">
+      <c r="B34" s="10" t="s">
         <v>50</v>
       </c>
     </row>
@@ -1501,10 +1501,10 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="8" t="s">
+      <c r="A58" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="B58" s="8" t="s">
+      <c r="B58" s="9" t="s">
         <v>96</v>
       </c>
     </row>
@@ -1617,10 +1617,10 @@
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="8" t="s">
+      <c r="A73" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="B73" s="9" t="s">
+      <c r="B73" s="10" t="s">
         <v>118</v>
       </c>
     </row>
@@ -1652,22 +1652,22 @@
       <c r="A1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="7" t="s">
         <v>21</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="11" t="s">
         <v>31</v>
       </c>
       <c r="H1" s="5" t="s">
@@ -1705,16 +1705,16 @@
       <c r="C2" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="D2" s="11">
+      <c r="D2" s="12">
         <v>44311.0</v>
       </c>
-      <c r="E2" s="11">
+      <c r="E2" s="12">
         <v>16220.0</v>
       </c>
-      <c r="F2" s="12">
+      <c r="F2" s="13">
         <v>42.226081</v>
       </c>
-      <c r="G2" s="13">
+      <c r="G2" s="14">
         <v>1.734361</v>
       </c>
       <c r="H2" s="1" t="s">
@@ -1749,22 +1749,22 @@
       <c r="C3" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="D3" s="11">
+      <c r="D3" s="12">
         <v>44311.0</v>
       </c>
-      <c r="E3" s="11">
+      <c r="E3" s="12">
         <v>18587.0</v>
       </c>
-      <c r="F3" s="14">
+      <c r="F3" s="15">
         <v>41.7526</v>
       </c>
-      <c r="G3" s="14">
+      <c r="G3" s="15">
         <v>2.3661</v>
       </c>
       <c r="H3" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="I3" s="15" t="s">
+      <c r="I3" s="7" t="s">
         <v>129</v>
       </c>
       <c r="J3" s="1" t="s">
@@ -1796,16 +1796,16 @@
       <c r="C4" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="D4" s="11">
+      <c r="D4" s="12">
         <v>44311.0</v>
       </c>
       <c r="E4" s="16">
         <v>20266.0</v>
       </c>
-      <c r="F4" s="12">
+      <c r="F4" s="13">
         <v>40.655446</v>
       </c>
-      <c r="G4" s="13">
+      <c r="G4" s="14">
         <v>-4.693876</v>
       </c>
       <c r="H4" s="1" t="s">
@@ -1840,16 +1840,16 @@
       <c r="C5" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="D5" s="11">
+      <c r="D5" s="12">
         <v>44311.0</v>
       </c>
-      <c r="E5" s="11">
+      <c r="E5" s="12">
         <v>18279.0</v>
       </c>
-      <c r="F5" s="14">
+      <c r="F5" s="15">
         <v>39.9875</v>
       </c>
-      <c r="G5" s="14">
+      <c r="G5" s="15">
         <v>0.0217</v>
       </c>
       <c r="H5" s="1" t="s">
@@ -1884,16 +1884,16 @@
       <c r="C6" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="D6" s="11">
+      <c r="D6" s="12">
         <v>44311.0</v>
       </c>
-      <c r="E6" s="11">
+      <c r="E6" s="12">
         <v>19083.0</v>
       </c>
-      <c r="F6" s="14">
+      <c r="F6" s="15">
         <v>41.7646</v>
       </c>
-      <c r="G6" s="14">
+      <c r="G6" s="15">
         <v>2.6531</v>
       </c>
       <c r="H6" s="1" t="s">
@@ -1928,16 +1928,16 @@
       <c r="C7" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="D7" s="11">
+      <c r="D7" s="12">
         <v>44311.0</v>
       </c>
-      <c r="E7" s="11">
+      <c r="E7" s="12">
         <v>16976.0</v>
       </c>
-      <c r="F7" s="14">
+      <c r="F7" s="15">
         <v>41.7646</v>
       </c>
-      <c r="G7" s="14">
+      <c r="G7" s="15">
         <v>2.6531</v>
       </c>
       <c r="H7" s="1" t="s">
@@ -1972,16 +1972,16 @@
       <c r="C8" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="D8" s="11">
+      <c r="D8" s="12">
         <v>44311.0</v>
       </c>
-      <c r="E8" s="11">
+      <c r="E8" s="12">
         <v>20806.0</v>
       </c>
-      <c r="F8" s="12">
+      <c r="F8" s="13">
         <v>41.8333</v>
       </c>
-      <c r="G8" s="12">
+      <c r="G8" s="13">
         <v>2.8333</v>
       </c>
       <c r="H8" s="1" t="s">
@@ -2016,16 +2016,16 @@
       <c r="C9" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="D9" s="11">
+      <c r="D9" s="12">
         <v>44311.0</v>
       </c>
-      <c r="E9" s="11">
+      <c r="E9" s="12">
         <v>18201.0</v>
       </c>
-      <c r="F9" s="12">
+      <c r="F9" s="13">
         <v>41.7692</v>
       </c>
-      <c r="G9" s="12">
+      <c r="G9" s="13">
         <v>2.4693</v>
       </c>
       <c r="H9" s="1" t="s">
@@ -2063,16 +2063,16 @@
       <c r="C10" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="D10" s="11">
+      <c r="D10" s="12">
         <v>44311.0</v>
       </c>
-      <c r="E10" s="11">
+      <c r="E10" s="12">
         <v>18384.0</v>
       </c>
-      <c r="F10" s="12">
+      <c r="F10" s="13">
         <v>42.2833</v>
       </c>
-      <c r="G10" s="12">
+      <c r="G10" s="13">
         <v>2.2</v>
       </c>
       <c r="H10" s="1" t="s">
@@ -2107,16 +2107,16 @@
       <c r="C11" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="D11" s="11">
+      <c r="D11" s="12">
         <v>44311.0</v>
       </c>
-      <c r="E11" s="11">
+      <c r="E11" s="12">
         <v>18749.0</v>
       </c>
-      <c r="F11" s="14">
+      <c r="F11" s="15">
         <v>40.4167</v>
       </c>
-      <c r="G11" s="14">
+      <c r="G11" s="15">
         <v>-3.7667</v>
       </c>
       <c r="H11" s="1" t="s">
@@ -2151,16 +2151,16 @@
       <c r="C12" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="D12" s="11">
+      <c r="D12" s="12">
         <v>44311.0</v>
       </c>
-      <c r="E12" s="11">
+      <c r="E12" s="12">
         <v>17249.0</v>
       </c>
-      <c r="F12" s="12">
+      <c r="F12" s="13">
         <v>41.449766</v>
       </c>
-      <c r="G12" s="13">
+      <c r="G12" s="14">
         <v>1.899852</v>
       </c>
       <c r="H12" s="1" t="s">
@@ -2195,16 +2195,16 @@
       <c r="C13" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="D13" s="11">
+      <c r="D13" s="12">
         <v>44311.0</v>
       </c>
-      <c r="E13" s="11">
+      <c r="E13" s="12">
         <v>20938.0</v>
       </c>
-      <c r="F13" s="12">
+      <c r="F13" s="13">
         <v>41.144</v>
       </c>
-      <c r="G13" s="12">
+      <c r="G13" s="13">
         <v>0.8195</v>
       </c>
       <c r="H13" s="1" t="s">
@@ -2239,10 +2239,10 @@
       <c r="C14" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="D14" s="11">
+      <c r="D14" s="12">
         <v>44311.0</v>
       </c>
-      <c r="E14" s="11">
+      <c r="E14" s="12">
         <v>16710.0</v>
       </c>
       <c r="F14" s="17">
@@ -2283,16 +2283,16 @@
       <c r="C15" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="D15" s="11">
+      <c r="D15" s="12">
         <v>44311.0</v>
       </c>
-      <c r="E15" s="11">
+      <c r="E15" s="12">
         <v>17340.0</v>
       </c>
-      <c r="F15" s="14">
+      <c r="F15" s="15">
         <v>41.7836</v>
       </c>
-      <c r="G15" s="14">
+      <c r="G15" s="15">
         <v>2.1862</v>
       </c>
       <c r="H15" s="1" t="s">
@@ -2327,16 +2327,16 @@
       <c r="C16" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="D16" s="11">
+      <c r="D16" s="12">
         <v>44311.0</v>
       </c>
-      <c r="E16" s="11">
+      <c r="E16" s="12">
         <v>18995.0</v>
       </c>
-      <c r="F16" s="14">
+      <c r="F16" s="15">
         <v>39.9875</v>
       </c>
-      <c r="G16" s="14">
+      <c r="G16" s="15">
         <v>0.0217</v>
       </c>
       <c r="H16" s="1" t="s">
@@ -2371,16 +2371,16 @@
       <c r="C17" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="D17" s="11">
+      <c r="D17" s="12">
         <v>44311.0</v>
       </c>
       <c r="E17" s="16">
         <v>20027.0</v>
       </c>
-      <c r="F17" s="12">
+      <c r="F17" s="13">
         <v>40.030282</v>
       </c>
-      <c r="G17" s="13">
+      <c r="G17" s="14">
         <v>-3.604844</v>
       </c>
       <c r="H17" s="1" t="s">
@@ -2415,16 +2415,16 @@
       <c r="C18" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="D18" s="11">
+      <c r="D18" s="12">
         <v>44311.0</v>
       </c>
-      <c r="E18" s="11">
+      <c r="E18" s="12">
         <v>19676.0</v>
       </c>
-      <c r="F18" s="14">
+      <c r="F18" s="15">
         <v>39.9875</v>
       </c>
-      <c r="G18" s="14">
+      <c r="G18" s="15">
         <v>0.0217</v>
       </c>
       <c r="H18" s="1" t="s">
@@ -2459,16 +2459,16 @@
       <c r="C19" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="D19" s="11">
+      <c r="D19" s="12">
         <v>44311.0</v>
       </c>
-      <c r="E19" s="11">
+      <c r="E19" s="12">
         <v>17227.0</v>
       </c>
-      <c r="F19" s="12">
+      <c r="F19" s="13">
         <v>42.29547</v>
       </c>
-      <c r="G19" s="13">
+      <c r="G19" s="14">
         <v>2.911596</v>
       </c>
       <c r="H19" s="1" t="s">
@@ -2503,16 +2503,16 @@
       <c r="C20" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="D20" s="11">
+      <c r="D20" s="12">
         <v>44311.0</v>
       </c>
-      <c r="E20" s="11">
+      <c r="E20" s="12">
         <v>19293.0</v>
       </c>
-      <c r="F20" s="12">
+      <c r="F20" s="13">
         <v>41.270968</v>
       </c>
-      <c r="G20" s="13">
+      <c r="G20" s="14">
         <v>2.045586</v>
       </c>
       <c r="H20" s="1" t="s">
@@ -2547,16 +2547,16 @@
       <c r="C21" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="D21" s="11">
+      <c r="D21" s="12">
         <v>44311.0</v>
       </c>
-      <c r="E21" s="11">
+      <c r="E21" s="12">
         <v>18476.0</v>
       </c>
-      <c r="F21" s="14">
+      <c r="F21" s="15">
         <v>39.9875</v>
       </c>
-      <c r="G21" s="14">
+      <c r="G21" s="15">
         <v>0.0217</v>
       </c>
       <c r="H21" s="1" t="s">
@@ -2591,16 +2591,16 @@
       <c r="C22" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="D22" s="11">
+      <c r="D22" s="12">
         <v>44311.0</v>
       </c>
-      <c r="E22" s="11">
+      <c r="E22" s="12">
         <v>20777.0</v>
       </c>
-      <c r="F22" s="14">
+      <c r="F22" s="15">
         <v>41.1977</v>
       </c>
-      <c r="G22" s="14">
+      <c r="G22" s="15">
         <v>1.6512</v>
       </c>
       <c r="H22" s="1" t="s">
@@ -2635,16 +2635,16 @@
       <c r="C23" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="D23" s="11">
+      <c r="D23" s="12">
         <v>44311.0</v>
       </c>
-      <c r="E23" s="11">
+      <c r="E23" s="12">
         <v>17113.0</v>
       </c>
-      <c r="F23" s="12">
+      <c r="F23" s="13">
         <v>41.058199</v>
       </c>
-      <c r="G23" s="13">
+      <c r="G23" s="14">
         <v>1.170633</v>
       </c>
       <c r="H23" s="1" t="s">
@@ -2679,16 +2679,16 @@
       <c r="C24" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="D24" s="11">
+      <c r="D24" s="12">
         <v>44311.0</v>
       </c>
-      <c r="E24" s="11">
+      <c r="E24" s="12">
         <v>20777.0</v>
       </c>
-      <c r="F24" s="14">
+      <c r="F24" s="15">
         <v>41.1977</v>
       </c>
-      <c r="G24" s="14">
+      <c r="G24" s="15">
         <v>1.6512</v>
       </c>
       <c r="H24" s="1" t="s">
@@ -2723,16 +2723,16 @@
       <c r="C25" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="D25" s="11">
+      <c r="D25" s="12">
         <v>44311.0</v>
       </c>
-      <c r="E25" s="11">
+      <c r="E25" s="12">
         <v>19561.0</v>
       </c>
-      <c r="F25" s="12">
+      <c r="F25" s="13">
         <v>37.752748</v>
       </c>
-      <c r="G25" s="13">
+      <c r="G25" s="14">
         <v>-0.841452</v>
       </c>
       <c r="H25" s="1" t="s">
@@ -9120,22 +9120,22 @@
       <c r="A2" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="9" t="s">
         <v>189</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="9" t="s">
         <v>190</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="9" t="s">
         <v>191</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="9" t="s">
         <v>192</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="9" t="s">
         <v>193</v>
       </c>
       <c r="H2" s="1" t="s">
@@ -9155,22 +9155,22 @@
       <c r="A3" s="21" t="s">
         <v>175</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="9" t="s">
         <v>175</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="9" t="s">
         <v>189</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="9" t="s">
         <v>190</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="9" t="s">
         <v>191</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="9" t="s">
         <v>192</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="9" t="s">
         <v>193</v>
       </c>
       <c r="H3" s="1" t="s">
@@ -9179,10 +9179,10 @@
       <c r="I3" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="K3" s="8" t="s">
+      <c r="K3" s="9" t="s">
         <v>198</v>
       </c>
-      <c r="L3" s="8" t="s">
+      <c r="L3" s="9" t="s">
         <v>198</v>
       </c>
       <c r="M3" s="1" t="s">
@@ -9193,19 +9193,19 @@
       <c r="A4" s="21" t="s">
         <v>176</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="9" t="s">
         <v>176</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="9" t="s">
         <v>189</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="9" t="s">
         <v>190</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="9" t="s">
         <v>191</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F4" s="9" t="s">
         <v>192</v>
       </c>
       <c r="G4" s="1" t="s">
@@ -9217,10 +9217,10 @@
       <c r="I4" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="K4" s="8" t="s">
+      <c r="K4" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="L4" s="8" t="s">
+      <c r="L4" s="9" t="s">
         <v>203</v>
       </c>
       <c r="M4" s="1" t="s">
@@ -9231,19 +9231,19 @@
       <c r="A5" s="21" t="s">
         <v>177</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="9" t="s">
         <v>177</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="9" t="s">
         <v>189</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="9" t="s">
         <v>190</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="9" t="s">
         <v>191</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="F5" s="9" t="s">
         <v>192</v>
       </c>
       <c r="G5" s="1" t="s">
@@ -9269,19 +9269,19 @@
       <c r="A6" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="9" t="s">
         <v>189</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="9" t="s">
         <v>190</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="9" t="s">
         <v>191</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="F6" s="9" t="s">
         <v>192</v>
       </c>
       <c r="G6" s="1" t="s">
@@ -9304,19 +9304,19 @@
       <c r="A7" s="21" t="s">
         <v>179</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="9" t="s">
         <v>189</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="9" t="s">
         <v>190</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="E7" s="9" t="s">
         <v>191</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="F7" s="9" t="s">
         <v>192</v>
       </c>
       <c r="G7" s="1" t="s">
@@ -9328,10 +9328,10 @@
       <c r="I7" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="K7" s="8" t="s">
+      <c r="K7" s="9" t="s">
         <v>213</v>
       </c>
-      <c r="L7" s="8" t="s">
+      <c r="L7" s="9" t="s">
         <v>213</v>
       </c>
       <c r="M7" s="1" t="s">
@@ -9342,19 +9342,19 @@
       <c r="A8" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="9" t="s">
         <v>214</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="9" t="s">
         <v>189</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="9" t="s">
         <v>190</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="E8" s="9" t="s">
         <v>191</v>
       </c>
-      <c r="F8" s="8" t="s">
+      <c r="F8" s="9" t="s">
         <v>192</v>
       </c>
       <c r="G8" s="1" t="s">
@@ -9366,10 +9366,10 @@
       <c r="I8" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="K8" s="8" t="s">
+      <c r="K8" s="9" t="s">
         <v>217</v>
       </c>
-      <c r="L8" s="8" t="s">
+      <c r="L8" s="9" t="s">
         <v>218</v>
       </c>
       <c r="M8" s="1" t="s">
@@ -9380,19 +9380,19 @@
       <c r="A9" s="21" t="s">
         <v>181</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="9" t="s">
         <v>181</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="9" t="s">
         <v>189</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="9" t="s">
         <v>190</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="E9" s="9" t="s">
         <v>191</v>
       </c>
-      <c r="F9" s="8" t="s">
+      <c r="F9" s="9" t="s">
         <v>192</v>
       </c>
       <c r="G9" s="1" t="s">
@@ -9404,10 +9404,10 @@
       <c r="I9" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="K9" s="8" t="s">
+      <c r="K9" s="9" t="s">
         <v>221</v>
       </c>
-      <c r="L9" s="8" t="s">
+      <c r="L9" s="9" t="s">
         <v>222</v>
       </c>
       <c r="M9" s="1" t="s">
@@ -9418,19 +9418,19 @@
       <c r="A10" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="9" t="s">
         <v>189</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="9" t="s">
         <v>190</v>
       </c>
-      <c r="E10" s="8" t="s">
+      <c r="E10" s="9" t="s">
         <v>191</v>
       </c>
-      <c r="F10" s="8" t="s">
+      <c r="F10" s="9" t="s">
         <v>192</v>
       </c>
       <c r="G10" s="1" t="s">
@@ -9453,19 +9453,19 @@
       <c r="A11" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="9" t="s">
         <v>224</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="9" t="s">
         <v>189</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="9" t="s">
         <v>190</v>
       </c>
-      <c r="E11" s="8" t="s">
+      <c r="E11" s="9" t="s">
         <v>191</v>
       </c>
-      <c r="F11" s="8" t="s">
+      <c r="F11" s="9" t="s">
         <v>192</v>
       </c>
       <c r="G11" s="1" t="s">
@@ -9491,19 +9491,19 @@
       <c r="A12" s="21" t="s">
         <v>184</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="9" t="s">
         <v>184</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="9" t="s">
         <v>189</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D12" s="9" t="s">
         <v>190</v>
       </c>
-      <c r="E12" s="8" t="s">
+      <c r="E12" s="9" t="s">
         <v>191</v>
       </c>
-      <c r="F12" s="8" t="s">
+      <c r="F12" s="9" t="s">
         <v>192</v>
       </c>
       <c r="G12" s="1" t="s">
@@ -9515,10 +9515,10 @@
       <c r="I12" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="K12" s="8" t="s">
+      <c r="K12" s="9" t="s">
         <v>229</v>
       </c>
-      <c r="L12" s="8" t="s">
+      <c r="L12" s="9" t="s">
         <v>229</v>
       </c>
       <c r="M12" s="1" t="s">
@@ -9529,19 +9529,19 @@
       <c r="A13" s="21" t="s">
         <v>185</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="9" t="s">
         <v>185</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="9" t="s">
         <v>189</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D13" s="9" t="s">
         <v>190</v>
       </c>
-      <c r="E13" s="8" t="s">
+      <c r="E13" s="9" t="s">
         <v>191</v>
       </c>
-      <c r="F13" s="8" t="s">
+      <c r="F13" s="9" t="s">
         <v>192</v>
       </c>
       <c r="G13" s="1" t="s">
@@ -9553,10 +9553,10 @@
       <c r="I13" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="K13" s="8" t="s">
+      <c r="K13" s="9" t="s">
         <v>231</v>
       </c>
-      <c r="L13" s="8" t="s">
+      <c r="L13" s="9" t="s">
         <v>231</v>
       </c>
       <c r="M13" s="1" t="s">
@@ -9567,19 +9567,19 @@
       <c r="A14" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="B14" s="15" t="s">
+      <c r="B14" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="9" t="s">
         <v>189</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="D14" s="9" t="s">
         <v>190</v>
       </c>
-      <c r="E14" s="8" t="s">
+      <c r="E14" s="9" t="s">
         <v>191</v>
       </c>
-      <c r="F14" s="8" t="s">
+      <c r="F14" s="9" t="s">
         <v>192</v>
       </c>
       <c r="G14" s="1" t="s">
@@ -9588,10 +9588,10 @@
       <c r="H14" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="K14" s="15" t="s">
+      <c r="K14" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="L14" s="15" t="s">
+      <c r="L14" s="7" t="s">
         <v>233</v>
       </c>
       <c r="M14" s="1" t="s">
@@ -9602,19 +9602,19 @@
       <c r="A15" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="B15" s="15" t="s">
+      <c r="B15" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="9" t="s">
         <v>189</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="D15" s="9" t="s">
         <v>190</v>
       </c>
-      <c r="E15" s="8" t="s">
+      <c r="E15" s="9" t="s">
         <v>191</v>
       </c>
-      <c r="F15" s="8" t="s">
+      <c r="F15" s="9" t="s">
         <v>192</v>
       </c>
       <c r="G15" s="1" t="s">
@@ -9626,10 +9626,10 @@
       <c r="I15" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="K15" s="8" t="s">
+      <c r="K15" s="9" t="s">
         <v>236</v>
       </c>
-      <c r="L15" s="8" t="s">
+      <c r="L15" s="9" t="s">
         <v>237</v>
       </c>
       <c r="M15" s="1" t="s">
@@ -9640,19 +9640,19 @@
       <c r="A16" s="21" t="s">
         <v>188</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C16" s="9" t="s">
         <v>189</v>
       </c>
-      <c r="D16" s="8" t="s">
+      <c r="D16" s="9" t="s">
         <v>190</v>
       </c>
-      <c r="E16" s="8" t="s">
+      <c r="E16" s="9" t="s">
         <v>191</v>
       </c>
-      <c r="F16" s="8" t="s">
+      <c r="F16" s="9" t="s">
         <v>192</v>
       </c>
       <c r="G16" s="1" t="s">
